--- a/excelhere/room_five.xlsx
+++ b/excelhere/room_five.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>202112002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/excelhere/room_five.xlsx
+++ b/excelhere/room_five.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>202112002</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>hhj</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>hj</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/excelhere/room_five.xlsx
+++ b/excelhere/room_five.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>hhj</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>hj</t>
+          <t>Voca</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,14 +474,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>수저</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>780</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>접시100</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>편육</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>삼겹살</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>편육</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>오징어튀김</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_five.xlsx
+++ b/excelhere/room_five.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Voca</t>
+          <t>ultra</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,48 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>노트</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>콜라</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excelhere/room_five.xlsx
+++ b/excelhere/room_five.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>0005</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>하경택</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ultra</t>
+          <t>성승헌</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>편육</t>
+          <t>닭볶음탕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>삼겹살</t>
+          <t>콜라</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,138 +578,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>닭볶음탕</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>편육</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>오징어튀김</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>양념치킨</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>9000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>노트</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>600</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>콜라</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/excelhere/room_five.xlsx
+++ b/excelhere/room_five.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0005</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>하경택</t>
+          <t>hong</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>성승헌</t>
+          <t>gil</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -506,7 +506,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>접시100</t>
+          <t>노트</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>닭볶음탕</t>
+          <t>육개장(컵)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9000</v>
+        <v>1050</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>9000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>접시100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,19 +557,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>9000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>콜라</t>
+          <t>육개장(컵)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
